--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sara\git\it-fse-accreditamento\GATEWAY\A1#111CONSORZIOMETIS\CONSORZIO_METIS\SISPC\V.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sara\eclipse_workspace-settembre\it-fse-accreditamento\GATEWAY\A1#111CONSORZIOMETIS\CONSORZIO_METIS\SISPC\V.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -240,15 +240,6 @@
     <t>VALIDAZIONE</t>
   </si>
   <si>
-    <t>LAB</t>
-  </si>
-  <si>
-    <t>LDO</t>
-  </si>
-  <si>
-    <t>RAD</t>
-  </si>
-  <si>
     <t>CERT_VAC</t>
   </si>
   <si>
@@ -317,9 +308,6 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VPS</t>
   </si>
   <si>
     <t>SI</t>
@@ -758,24 +746,6 @@
     <t>Validazione</t>
   </si>
   <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>28,36,44,52,53,54,55,56,57,58,59,60,61,62</t>
-  </si>
-  <si>
-    <t>6,7,8,9</t>
-  </si>
-  <si>
-    <t>29,37,45,63,64,65,66,67,68,69,70,71,72,73,74</t>
-  </si>
-  <si>
-    <t>11,12,13,14</t>
-  </si>
-  <si>
-    <t>31,39,47,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93</t>
-  </si>
-  <si>
     <t>16,17,18,19</t>
   </si>
   <si>
@@ -788,12 +758,6 @@
     <t>34,42,50,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121</t>
   </si>
   <si>
-    <t>24,25,26,27</t>
-  </si>
-  <si>
-    <t>35,43,51,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -801,6 +765,24 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>2023-02-03T10:10:37Z</t>
+  </si>
+  <si>
+    <t>0188b03878495dd0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.b3cdf19ad7da26c8809fd833baae57350d40fb497ae8da21ea2164efc250af62.fb9efd7031^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T11:18:00Z</t>
+  </si>
+  <si>
+    <t>8e864dfd815482f4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.cee9f713d63dd608714e7dd54350ec0f5f9d555eb2290efb31409ac17c4f565c.3cf226db35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -895,7 +877,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1151,32 +1133,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1204,41 +1160,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1323,29 +1249,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1364,10 +1284,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2735,10 +2657,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2747,7 +2669,7 @@
     <col min="2" max="2" width="46.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="104.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="9" width="33.28515625" customWidth="1"/>
     <col min="10" max="11" width="27.28515625" customWidth="1"/>
     <col min="12" max="12" width="33.28515625" customWidth="1"/>
@@ -2769,12 +2691,12 @@
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="40"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -2787,14 +2709,14 @@
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="40"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -2807,12 +2729,12 @@
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="52" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -2826,12 +2748,12 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="40"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -2844,8 +2766,8 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -2940,13 +2862,13 @@
         <v>28</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -2967,13 +2889,13 @@
         <v>28</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="E11" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -2994,13 +2916,13 @@
         <v>28</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3021,13 +2943,13 @@
         <v>28</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
@@ -3048,18 +2970,26 @@
         <v>28</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="F14" s="20">
+        <v>44960</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
@@ -3075,18 +3005,26 @@
         <v>28</v>
       </c>
       <c r="C15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="F15" s="20">
+        <v>44960</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
@@ -3102,13 +3040,13 @@
         <v>28</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
@@ -3129,13 +3067,13 @@
         <v>28</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
@@ -3156,13 +3094,13 @@
         <v>28</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
@@ -3173,7 +3111,7 @@
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O18" s="24"/>
     </row>
@@ -3185,13 +3123,13 @@
         <v>28</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
@@ -3202,7 +3140,7 @@
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O19" s="24"/>
     </row>
@@ -3214,13 +3152,13 @@
         <v>28</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
@@ -3231,7 +3169,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O20" s="24"/>
     </row>
@@ -3243,13 +3181,13 @@
         <v>28</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
@@ -3260,7 +3198,7 @@
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O21" s="24"/>
     </row>
@@ -3272,13 +3210,13 @@
         <v>28</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
@@ -3289,7 +3227,7 @@
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O22" s="24"/>
     </row>
@@ -3301,13 +3239,13 @@
         <v>28</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
@@ -3318,7 +3256,7 @@
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O23" s="24"/>
     </row>
@@ -3330,13 +3268,13 @@
         <v>28</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
@@ -3347,7 +3285,7 @@
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O24" s="24"/>
     </row>
@@ -3359,13 +3297,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="21"/>
@@ -3376,7 +3314,7 @@
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O25" s="24"/>
     </row>
@@ -3388,13 +3326,13 @@
         <v>28</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="21"/>
@@ -3405,7 +3343,7 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O26" s="24"/>
     </row>
@@ -3417,13 +3355,13 @@
         <v>28</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="21"/>
@@ -3434,7 +3372,7 @@
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O27" s="24"/>
     </row>
@@ -3446,24 +3384,21 @@
         <v>28</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+        <v>68</v>
+      </c>
       <c r="I28" s="21"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O28" s="24"/>
     </row>
@@ -3475,13 +3410,13 @@
         <v>28</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="21"/>
@@ -3492,7 +3427,7 @@
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O29" s="24"/>
     </row>
@@ -3504,13 +3439,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
@@ -3521,7 +3456,7 @@
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O30" s="24"/>
     </row>
@@ -3533,13 +3468,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="21"/>
@@ -3550,7 +3485,7 @@
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O31" s="24"/>
     </row>
@@ -3562,13 +3497,13 @@
         <v>28</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="21"/>
@@ -3579,7 +3514,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O32" s="24"/>
     </row>
@@ -3591,13 +3526,13 @@
         <v>28</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="21"/>
@@ -3608,7 +3543,7 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O33" s="24"/>
     </row>
@@ -3620,13 +3555,13 @@
         <v>28</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="21"/>
@@ -3637,7 +3572,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O34" s="24"/>
     </row>
@@ -3649,13 +3584,13 @@
         <v>28</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="21"/>
@@ -3666,7 +3601,7 @@
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O35" s="24"/>
     </row>
@@ -3678,13 +3613,13 @@
         <v>28</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="21"/>
@@ -3695,7 +3630,7 @@
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O36" s="24"/>
     </row>
@@ -3707,13 +3642,13 @@
         <v>28</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="21"/>
@@ -3724,7 +3659,7 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O37" s="24"/>
     </row>
@@ -3736,13 +3671,13 @@
         <v>28</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="21"/>
@@ -3753,7 +3688,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O38" s="24"/>
     </row>
@@ -3765,13 +3700,13 @@
         <v>28</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="21"/>
@@ -3782,7 +3717,7 @@
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O39" s="24"/>
     </row>
@@ -3794,13 +3729,13 @@
         <v>28</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="21"/>
@@ -3811,7 +3746,7 @@
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O40" s="24"/>
     </row>
@@ -3823,13 +3758,13 @@
         <v>28</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
@@ -3840,7 +3775,7 @@
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O41" s="24"/>
     </row>
@@ -3852,13 +3787,13 @@
         <v>28</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="21"/>
@@ -3869,7 +3804,7 @@
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O42" s="24"/>
     </row>
@@ -3881,13 +3816,13 @@
         <v>28</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="21"/>
@@ -3898,7 +3833,7 @@
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O43" s="24"/>
     </row>
@@ -3910,13 +3845,13 @@
         <v>28</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="21"/>
@@ -3927,7 +3862,7 @@
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O44" s="24"/>
     </row>
@@ -3939,13 +3874,13 @@
         <v>28</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
@@ -3956,7 +3891,7 @@
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O45" s="24"/>
     </row>
@@ -3968,13 +3903,13 @@
         <v>28</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="21"/>
@@ -3985,7 +3920,7 @@
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O46" s="24"/>
     </row>
@@ -3997,13 +3932,13 @@
         <v>28</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="21"/>
@@ -4014,7 +3949,7 @@
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O47" s="24"/>
     </row>
@@ -4026,13 +3961,13 @@
         <v>28</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="21"/>
@@ -4043,7 +3978,7 @@
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O48" s="24"/>
     </row>
@@ -4055,13 +3990,13 @@
         <v>28</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
@@ -4072,7 +4007,7 @@
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O49" s="24"/>
     </row>
@@ -4084,13 +4019,13 @@
         <v>28</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="21"/>
@@ -4101,7 +4036,7 @@
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O50" s="24"/>
     </row>
@@ -4113,13 +4048,13 @@
         <v>28</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="21"/>
@@ -4130,7 +4065,7 @@
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O51" s="24"/>
     </row>
@@ -14311,11 +14246,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D998"/>
+  <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14335,96 +14270,44 @@
         <v>14</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="29" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="D3" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>133</v>
-      </c>
-    </row>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15412,10 +15295,6 @@
     <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -15436,27 +15315,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>51</v>
+      <c r="A2" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>136</v>
+      <c r="A3" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="134">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -783,6 +783,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.cee9f713d63dd608714e7dd54350ec0f5f9d555eb2290efb31409ac17c4f565c.3cf226db35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.f70d3c17258416b9a31076313afb5e2cc1bfd88fb19a218048b0bcd6aa5c40b3.048ca9593f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3282001096a84fd2</t>
+  </si>
+  <si>
+    <t>2023-02-03T13:24:19Z</t>
   </si>
 </sst>
 </file>
@@ -2657,10 +2666,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3075,10 +3084,18 @@
       <c r="E17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="F17" s="20">
+        <v>44960</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -792,6 +792,15 @@
   </si>
   <si>
     <t>2023-02-03T13:24:19Z</t>
+  </si>
+  <si>
+    <t>2023-02-03T15:50:39Z</t>
+  </si>
+  <si>
+    <t>1b1e43ef112d6b75</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.41309ad9ee4a4dc5d8d043451d8fd76972699d3f573504fe5a355b3cfe1feb28.91a491e549^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2663,13 +2672,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2682,7 +2692,8 @@
     <col min="6" max="9" width="33.28515625" customWidth="1"/>
     <col min="10" max="11" width="27.28515625" customWidth="1"/>
     <col min="12" max="12" width="33.28515625" customWidth="1"/>
-    <col min="13" max="14" width="36.42578125" customWidth="1"/>
+    <col min="13" max="13" width="36.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
     <col min="15" max="15" width="31.7109375" customWidth="1"/>
     <col min="16" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -2863,7 +2874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>16</v>
       </c>
@@ -2890,7 +2901,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="24"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>17</v>
       </c>
@@ -2917,7 +2928,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>18</v>
       </c>
@@ -2944,7 +2955,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>19</v>
       </c>
@@ -3001,7 +3012,9 @@
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="L14" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M14" s="22"/>
       <c r="N14" s="23"/>
       <c r="O14" s="24"/>
@@ -3036,7 +3049,9 @@
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="L15" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M15" s="22"/>
       <c r="N15" s="23"/>
       <c r="O15" s="24"/>
@@ -3098,12 +3113,14 @@
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="L17" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M17" s="22"/>
       <c r="N17" s="23"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>33</v>
       </c>
@@ -3161,7 +3178,7 @@
       </c>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>41</v>
       </c>
@@ -3219,7 +3236,7 @@
       </c>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>49</v>
       </c>
@@ -3277,7 +3294,7 @@
       </c>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>94</v>
       </c>
@@ -3306,7 +3323,7 @@
       </c>
       <c r="O24" s="24"/>
     </row>
-    <row r="25" spans="1:15" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>95</v>
       </c>
@@ -3335,7 +3352,7 @@
       </c>
       <c r="O25" s="24"/>
     </row>
-    <row r="26" spans="1:15" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>96</v>
       </c>
@@ -3364,7 +3381,7 @@
       </c>
       <c r="O26" s="24"/>
     </row>
-    <row r="27" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>97</v>
       </c>
@@ -3393,7 +3410,7 @@
       </c>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>98</v>
       </c>
@@ -3419,7 +3436,7 @@
       </c>
       <c r="O28" s="24"/>
     </row>
-    <row r="29" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>99</v>
       </c>
@@ -3448,7 +3465,7 @@
       </c>
       <c r="O29" s="24"/>
     </row>
-    <row r="30" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>100</v>
       </c>
@@ -3477,7 +3494,7 @@
       </c>
       <c r="O30" s="24"/>
     </row>
-    <row r="31" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>101</v>
       </c>
@@ -3506,7 +3523,7 @@
       </c>
       <c r="O31" s="24"/>
     </row>
-    <row r="32" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>102</v>
       </c>
@@ -3535,7 +3552,7 @@
       </c>
       <c r="O32" s="24"/>
     </row>
-    <row r="33" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>103</v>
       </c>
@@ -3564,7 +3581,7 @@
       </c>
       <c r="O33" s="24"/>
     </row>
-    <row r="34" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>104</v>
       </c>
@@ -3593,7 +3610,7 @@
       </c>
       <c r="O34" s="24"/>
     </row>
-    <row r="35" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>105</v>
       </c>
@@ -3622,7 +3639,7 @@
       </c>
       <c r="O35" s="24"/>
     </row>
-    <row r="36" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>106</v>
       </c>
@@ -3667,13 +3684,23 @@
       <c r="E37" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="F37" s="20">
+        <v>44960</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
+      <c r="L37" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M37" s="22"/>
       <c r="N37" s="23" t="s">
         <v>47</v>
@@ -14227,7 +14254,13 @@
       <c r="O896" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:O51"/>
+  <autoFilter ref="A9:O51">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="SING_VAC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="140">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -801,6 +801,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.41309ad9ee4a4dc5d8d043451d8fd76972699d3f573504fe5a355b3cfe1feb28.91a491e549^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T15:59:31Z</t>
+  </si>
+  <si>
+    <t>0707fbe98f8267c9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.7cdbc659ade53971ad4fee9066fcfe3a58904f6ba03e60b8c047dec31464f0d0.665ebe046f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2676,18 +2685,18 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="9" width="33.28515625" customWidth="1"/>
     <col min="10" max="11" width="27.28515625" customWidth="1"/>
@@ -3723,13 +3732,23 @@
       <c r="E38" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="F38" s="20">
+        <v>44960</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>139</v>
+      </c>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
+      <c r="L38" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M38" s="22"/>
       <c r="N38" s="23" t="s">
         <v>47</v>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="146">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -810,6 +810,24 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.7cdbc659ade53971ad4fee9066fcfe3a58904f6ba03e60b8c047dec31464f0d0.665ebe046f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T16:06:35Z</t>
+  </si>
+  <si>
+    <t>f046ce26006388f5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.2c9edbff1c5a4a41649812981317b66b6f683d4683f03518063aebcbdc4dc5e4.3b26100e8d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T16:19:54Z</t>
+  </si>
+  <si>
+    <t>f6b87b5563503880</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.9d44a696ce33f392062023517bd0fe90222b7d74cefa272e62b605b39228e6cd.b7ef544b68^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2688,7 +2706,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3771,13 +3789,23 @@
       <c r="E39" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="F39" s="20">
+        <v>44960</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>142</v>
+      </c>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
+      <c r="L39" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M39" s="22"/>
       <c r="N39" s="23" t="s">
         <v>47</v>
@@ -3805,7 +3833,9 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
+      <c r="K40" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="23" t="s">
@@ -3829,13 +3859,23 @@
       <c r="E41" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
+      <c r="F41" s="20">
+        <v>44960</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>145</v>
+      </c>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
+      <c r="L41" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M41" s="22"/>
       <c r="N41" s="23" t="s">
         <v>47</v>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="149">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -828,6 +828,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.9d44a696ce33f392062023517bd0fe90222b7d74cefa272e62b605b39228e6cd.b7ef544b68^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T16:28:04Z</t>
+  </si>
+  <si>
+    <t>8e12c64f320df259</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.09eaeb541361fcd87e79fee58b997835fe42480f6547e0a02946bb186f9d02eb.4a98c497c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2703,10 +2712,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3898,13 +3907,23 @@
       <c r="E42" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="F42" s="20">
+        <v>44960</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>148</v>
+      </c>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
+      <c r="L42" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M42" s="22"/>
       <c r="N42" s="23" t="s">
         <v>47</v>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="152">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -837,6 +837,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.09eaeb541361fcd87e79fee58b997835fe42480f6547e0a02946bb186f9d02eb.4a98c497c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T16:44:53Z</t>
+  </si>
+  <si>
+    <t>6b969dc0c80cdc5c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.9b39b0966ba8b8371ac6d3cbeac80c930132404a0b392dbffa3e03a544f25462.1db38fca70^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2712,10 +2721,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
+      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3946,13 +3955,23 @@
       <c r="E43" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
+      <c r="F43" s="20">
+        <v>44960</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
+      <c r="L43" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M43" s="22"/>
       <c r="N43" s="23" t="s">
         <v>47</v>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="158">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -846,6 +846,24 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.9b39b0966ba8b8371ac6d3cbeac80c930132404a0b392dbffa3e03a544f25462.1db38fca70^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T16:53:54Z</t>
+  </si>
+  <si>
+    <t>3da65d831debea49</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.1d9abba9b315b3df3fd3d1da830b2c6ccd8d07c703dd14dac922133de4858246.383cbac1a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T17:01:25Z</t>
+  </si>
+  <si>
+    <t>d8247cc017c6a1ac</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.056ddf47f7a1b991b2da72a001d39e3b230b164a9b987e0608181ca52b47041b.ba479a7a06^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2724,7 +2742,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
+      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4023,13 +4041,23 @@
       <c r="E45" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
+      <c r="F45" s="20">
+        <v>44960</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>154</v>
+      </c>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
+      <c r="L45" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M45" s="22"/>
       <c r="N45" s="23" t="s">
         <v>47</v>
@@ -4052,13 +4080,23 @@
       <c r="E46" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+      <c r="F46" s="20">
+        <v>44960</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>157</v>
+      </c>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
+      <c r="L46" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M46" s="22"/>
       <c r="N46" s="23" t="s">
         <v>47</v>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="161">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -864,6 +864,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.056ddf47f7a1b991b2da72a001d39e3b230b164a9b987e0608181ca52b47041b.ba479a7a06^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T17:10:51Z</t>
+  </si>
+  <si>
+    <t>4f811d138cfa935a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.f09e5f9926bc78d538f8cd8ab041c53fab6d011dcfa53c93892e648a45e9e73c.06bc35d45b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2739,10 +2748,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
+      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4119,13 +4128,23 @@
       <c r="E47" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
+      <c r="F47" s="20">
+        <v>44960</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>160</v>
+      </c>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
+      <c r="L47" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M47" s="22"/>
       <c r="N47" s="23" t="s">
         <v>47</v>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="164">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -873,6 +873,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.f09e5f9926bc78d538f8cd8ab041c53fab6d011dcfa53c93892e648a45e9e73c.06bc35d45b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-06T10:40:41Z</t>
+  </si>
+  <si>
+    <t>f6d32a987b02027a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.e9f1c43d46bf300964ef3c21545c3e828112d7747426bab98a727040849d674f.002a583bf1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2748,10 +2757,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4167,13 +4176,23 @@
       <c r="E48" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="F48" s="20">
+        <v>44963</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>163</v>
+      </c>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
+      <c r="L48" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M48" s="22"/>
       <c r="N48" s="23" t="s">
         <v>47</v>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="167">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -882,6 +882,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.e9f1c43d46bf300964ef3c21545c3e828112d7747426bab98a727040849d674f.002a583bf1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-06T10:49:07Z</t>
+  </si>
+  <si>
+    <t>1aef99a2206d0512</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.51da2a494864dbf1ddf6782f350cf2014a041c71ead62b105d0e9831d05a7eb1.2a90ac2252^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2757,10 +2766,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
+      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4215,13 +4224,23 @@
       <c r="E49" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
+      <c r="F49" s="20">
+        <v>44963</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>166</v>
+      </c>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
+      <c r="L49" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M49" s="22"/>
       <c r="N49" s="23" t="s">
         <v>47</v>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="170">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -891,6 +891,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.51da2a494864dbf1ddf6782f350cf2014a041c71ead62b105d0e9831d05a7eb1.2a90ac2252^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-06T16:48:29Z</t>
+  </si>
+  <si>
+    <t>ce943e4442bb2265</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.af44698f5243cd06a07244c5bbf19d9f62b46a5d04e74454a3a4f5173499b9de.9106321210^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2766,10 +2775,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2964,7 +2973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>16</v>
       </c>
@@ -2980,18 +2989,28 @@
       <c r="E10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="F10" s="20">
+        <v>44963</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>169</v>
+      </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="L10" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M10" s="22"/>
       <c r="N10" s="23"/>
       <c r="O10" s="24"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>17</v>
       </c>
@@ -3018,7 +3037,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>18</v>
       </c>
@@ -3045,7 +3064,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>19</v>
       </c>
@@ -3072,7 +3091,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>20</v>
       </c>
@@ -3109,7 +3128,7 @@
       <c r="N14" s="23"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>21</v>
       </c>
@@ -3146,7 +3165,7 @@
       <c r="N15" s="23"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>22</v>
       </c>
@@ -3173,7 +3192,7 @@
       <c r="N16" s="23"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>23</v>
       </c>
@@ -3210,7 +3229,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>33</v>
       </c>
@@ -3239,7 +3258,7 @@
       </c>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>34</v>
       </c>
@@ -3268,7 +3287,7 @@
       </c>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>41</v>
       </c>
@@ -3297,7 +3316,7 @@
       </c>
       <c r="O20" s="24"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>42</v>
       </c>
@@ -3326,7 +3345,7 @@
       </c>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>49</v>
       </c>
@@ -3355,7 +3374,7 @@
       </c>
       <c r="O22" s="24"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>50</v>
       </c>
@@ -3384,7 +3403,7 @@
       </c>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>94</v>
       </c>
@@ -3413,7 +3432,7 @@
       </c>
       <c r="O24" s="24"/>
     </row>
-    <row r="25" spans="1:15" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>95</v>
       </c>
@@ -3442,7 +3461,7 @@
       </c>
       <c r="O25" s="24"/>
     </row>
-    <row r="26" spans="1:15" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>96</v>
       </c>
@@ -3471,7 +3490,7 @@
       </c>
       <c r="O26" s="24"/>
     </row>
-    <row r="27" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>97</v>
       </c>
@@ -3500,7 +3519,7 @@
       </c>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>98</v>
       </c>
@@ -3526,7 +3545,7 @@
       </c>
       <c r="O28" s="24"/>
     </row>
-    <row r="29" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>99</v>
       </c>
@@ -3555,7 +3574,7 @@
       </c>
       <c r="O29" s="24"/>
     </row>
-    <row r="30" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>100</v>
       </c>
@@ -3584,7 +3603,7 @@
       </c>
       <c r="O30" s="24"/>
     </row>
-    <row r="31" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>101</v>
       </c>
@@ -3613,7 +3632,7 @@
       </c>
       <c r="O31" s="24"/>
     </row>
-    <row r="32" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>102</v>
       </c>
@@ -3642,7 +3661,7 @@
       </c>
       <c r="O32" s="24"/>
     </row>
-    <row r="33" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>103</v>
       </c>
@@ -3671,7 +3690,7 @@
       </c>
       <c r="O33" s="24"/>
     </row>
-    <row r="34" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>104</v>
       </c>
@@ -3700,7 +3719,7 @@
       </c>
       <c r="O34" s="24"/>
     </row>
-    <row r="35" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>105</v>
       </c>
@@ -3729,7 +3748,7 @@
       </c>
       <c r="O35" s="24"/>
     </row>
-    <row r="36" spans="1:15" ht="160.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>106</v>
       </c>
@@ -3758,7 +3777,7 @@
       </c>
       <c r="O36" s="24"/>
     </row>
-    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>107</v>
       </c>
@@ -3797,7 +3816,7 @@
       </c>
       <c r="O37" s="24"/>
     </row>
-    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>108</v>
       </c>
@@ -3836,7 +3855,7 @@
       </c>
       <c r="O38" s="24"/>
     </row>
-    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>109</v>
       </c>
@@ -3875,7 +3894,7 @@
       </c>
       <c r="O39" s="24"/>
     </row>
-    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>110</v>
       </c>
@@ -3906,7 +3925,7 @@
       </c>
       <c r="O40" s="24"/>
     </row>
-    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>111</v>
       </c>
@@ -3945,7 +3964,7 @@
       </c>
       <c r="O41" s="24"/>
     </row>
-    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>112</v>
       </c>
@@ -3984,7 +4003,7 @@
       </c>
       <c r="O42" s="24"/>
     </row>
-    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>113</v>
       </c>
@@ -4023,7 +4042,7 @@
       </c>
       <c r="O43" s="24"/>
     </row>
-    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>114</v>
       </c>
@@ -4052,7 +4071,7 @@
       </c>
       <c r="O44" s="24"/>
     </row>
-    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>115</v>
       </c>
@@ -4091,7 +4110,7 @@
       </c>
       <c r="O45" s="24"/>
     </row>
-    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>116</v>
       </c>
@@ -4130,7 +4149,7 @@
       </c>
       <c r="O46" s="24"/>
     </row>
-    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>117</v>
       </c>
@@ -4169,7 +4188,7 @@
       </c>
       <c r="O47" s="24"/>
     </row>
-    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>118</v>
       </c>
@@ -4208,7 +4227,7 @@
       </c>
       <c r="O48" s="24"/>
     </row>
-    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>119</v>
       </c>
@@ -4247,7 +4266,7 @@
       </c>
       <c r="O49" s="24"/>
     </row>
-    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>120</v>
       </c>
@@ -4276,7 +4295,7 @@
       </c>
       <c r="O50" s="24"/>
     </row>
-    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>121</v>
       </c>
@@ -14449,7 +14468,7 @@
   <autoFilter ref="A9:O51">
     <filterColumn colId="2">
       <filters>
-        <filter val="SING_VAC"/>
+        <filter val="CERT_VAC"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="173">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -900,6 +900,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.af44698f5243cd06a07244c5bbf19d9f62b46a5d04e74454a3a4f5173499b9de.9106321210^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-06T17:17:05Z</t>
+  </si>
+  <si>
+    <t>164b9e8c88c4194c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.11cdc6d7029c467805ea83b5d928e53f2dfd876a74ccf257b77bb315a437305d.2ca2262a70^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2778,7 +2787,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3026,13 +3035,23 @@
       <c r="E11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="F11" s="20">
+        <v>44963</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>172</v>
+      </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="L11" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M11" s="22"/>
       <c r="N11" s="23"/>
       <c r="O11" s="24"/>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="176">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -909,6 +909,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.11cdc6d7029c467805ea83b5d928e53f2dfd876a74ccf257b77bb315a437305d.2ca2262a70^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-07T10:21:15Z</t>
+  </si>
+  <si>
+    <t>ad92964cb65ce66c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.9f3473998ad23aaa26357b3c70430b4e49be42f18ba775573d4aa9bf5d076c6d.a186fa7896^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2787,7 +2796,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3072,13 +3081,23 @@
       <c r="E12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="F12" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="L12" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M12" s="22"/>
       <c r="N12" s="23"/>
       <c r="O12" s="24"/>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -911,13 +911,13 @@
     <t>2.16.840.1.113883.2.9.2.90.4.4.11cdc6d7029c467805ea83b5d928e53f2dfd876a74ccf257b77bb315a437305d.2ca2262a70^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-02-07T10:21:15Z</t>
-  </si>
-  <si>
-    <t>ad92964cb65ce66c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.9f3473998ad23aaa26357b3c70430b4e49be42f18ba775573d4aa9bf5d076c6d.a186fa7896^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-02-07T10:37:44Z</t>
+  </si>
+  <si>
+    <t>6424e05331d59204</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.f7fbdb8518942fc7623480d4a9127da0e5129e690004c9564b7dd3f99f312b48.b0239a7138^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2796,7 +2796,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3087,7 +3087,7 @@
       <c r="G12" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="49" t="s">
         <v>174</v>
       </c>
       <c r="I12" s="21" t="s">

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="179">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -918,6 +918,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.f7fbdb8518942fc7623480d4a9127da0e5129e690004c9564b7dd3f99f312b48.b0239a7138^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-07T10:53:54Z</t>
+  </si>
+  <si>
+    <t>e994003eb755a932</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.77c5c58b4930b23b1dbbb36ba7625bcd8e2444a7c80a3918635fb3e2e5502b46.8733c9c496^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2796,7 +2805,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3118,13 +3127,23 @@
       <c r="E13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="F13" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>178</v>
+      </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="L13" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M13" s="22"/>
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="182">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -927,6 +927,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.77c5c58b4930b23b1dbbb36ba7625bcd8e2444a7c80a3918635fb3e2e5502b46.8733c9c496^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>af8f15613e1b57aa</t>
+  </si>
+  <si>
+    <t>2023-02-07T11:02:43Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.a7c686cb97b6b996280eea8c2c140032a998fefa7ae27efb64ef70077ce8a222.f77e04ad19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2805,7 +2814,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3302,13 +3311,23 @@
       <c r="E18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="F18" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>181</v>
+      </c>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="L18" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M18" s="22"/>
       <c r="N18" s="23" t="s">
         <v>47</v>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="188">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -936,6 +936,24 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.a7c686cb97b6b996280eea8c2c140032a998fefa7ae27efb64ef70077ce8a222.f77e04ad19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>1b1b7d45b912f42d</t>
+  </si>
+  <si>
+    <t>2023-02-07T11:28:47Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.86d5071b6dca0779ff83c8ad50036f11080594edf0ea7c4dc164a003f1e5c77a.ad767223a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-07T11:41:35Z</t>
+  </si>
+  <si>
+    <t>11b5209b37842e10</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.e748357fa64cbd1f05e0b8d703203d0aa65e1ac6877848f10c8668f1aaff247a.f78baeaba6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2811,20 +2829,21 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="9" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="64.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="9" width="33.28515625" customWidth="1"/>
     <col min="10" max="11" width="27.28515625" customWidth="1"/>
     <col min="12" max="12" width="33.28515625" customWidth="1"/>
     <col min="13" max="13" width="36.42578125" customWidth="1"/>
@@ -3009,7 +3028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>16</v>
       </c>
@@ -3046,7 +3065,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="24"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>17</v>
       </c>
@@ -3083,7 +3102,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>18</v>
       </c>
@@ -3120,7 +3139,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>19</v>
       </c>
@@ -3157,7 +3176,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>20</v>
       </c>
@@ -3194,7 +3213,7 @@
       <c r="N14" s="23"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="214.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>21</v>
       </c>
@@ -3231,7 +3250,7 @@
       <c r="N15" s="23"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="206.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>22</v>
       </c>
@@ -3258,7 +3277,7 @@
       <c r="N16" s="23"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="286.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>23</v>
       </c>
@@ -3295,7 +3314,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>33</v>
       </c>
@@ -3334,7 +3353,7 @@
       </c>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="195" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>34</v>
       </c>
@@ -3363,7 +3382,7 @@
       </c>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>41</v>
       </c>
@@ -3392,7 +3411,7 @@
       </c>
       <c r="O20" s="24"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="173.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>42</v>
       </c>
@@ -3421,7 +3440,7 @@
       </c>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>49</v>
       </c>
@@ -3450,7 +3469,7 @@
       </c>
       <c r="O22" s="24"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="86.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>50</v>
       </c>
@@ -3479,7 +3498,7 @@
       </c>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>94</v>
       </c>
@@ -3495,13 +3514,23 @@
       <c r="E24" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="F24" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>181</v>
+      </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
+      <c r="L24" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M24" s="22"/>
       <c r="N24" s="23" t="s">
         <v>47</v>
@@ -3524,13 +3553,23 @@
       <c r="E25" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="F25" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>184</v>
+      </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
+      <c r="L25" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M25" s="22"/>
       <c r="N25" s="23" t="s">
         <v>47</v>
@@ -3553,20 +3592,30 @@
       <c r="E26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="F26" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
+      <c r="L26" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M26" s="22"/>
       <c r="N26" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O26" s="24"/>
     </row>
-    <row r="27" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>97</v>
       </c>
@@ -3595,7 +3644,7 @@
       </c>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>98</v>
       </c>
@@ -3621,7 +3670,7 @@
       </c>
       <c r="O28" s="24"/>
     </row>
-    <row r="29" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>99</v>
       </c>
@@ -3650,7 +3699,7 @@
       </c>
       <c r="O29" s="24"/>
     </row>
-    <row r="30" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>100</v>
       </c>
@@ -3679,7 +3728,7 @@
       </c>
       <c r="O30" s="24"/>
     </row>
-    <row r="31" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>101</v>
       </c>
@@ -3737,7 +3786,7 @@
       </c>
       <c r="O32" s="24"/>
     </row>
-    <row r="33" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>103</v>
       </c>
@@ -3766,7 +3815,7 @@
       </c>
       <c r="O33" s="24"/>
     </row>
-    <row r="34" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>104</v>
       </c>
@@ -3795,7 +3844,7 @@
       </c>
       <c r="O34" s="24"/>
     </row>
-    <row r="35" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>105</v>
       </c>
@@ -3824,7 +3873,7 @@
       </c>
       <c r="O35" s="24"/>
     </row>
-    <row r="36" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>106</v>
       </c>
@@ -3853,7 +3902,7 @@
       </c>
       <c r="O36" s="24"/>
     </row>
-    <row r="37" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>107</v>
       </c>
@@ -3892,7 +3941,7 @@
       </c>
       <c r="O37" s="24"/>
     </row>
-    <row r="38" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>108</v>
       </c>
@@ -3931,7 +3980,7 @@
       </c>
       <c r="O38" s="24"/>
     </row>
-    <row r="39" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>109</v>
       </c>
@@ -3970,7 +4019,7 @@
       </c>
       <c r="O39" s="24"/>
     </row>
-    <row r="40" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="185.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>110</v>
       </c>
@@ -4001,7 +4050,7 @@
       </c>
       <c r="O40" s="24"/>
     </row>
-    <row r="41" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>111</v>
       </c>
@@ -4040,7 +4089,7 @@
       </c>
       <c r="O41" s="24"/>
     </row>
-    <row r="42" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="94.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>112</v>
       </c>
@@ -4079,7 +4128,7 @@
       </c>
       <c r="O42" s="24"/>
     </row>
-    <row r="43" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="186" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>113</v>
       </c>
@@ -4118,7 +4167,7 @@
       </c>
       <c r="O43" s="24"/>
     </row>
-    <row r="44" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="198" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>114</v>
       </c>
@@ -4147,7 +4196,7 @@
       </c>
       <c r="O44" s="24"/>
     </row>
-    <row r="45" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="183.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>115</v>
       </c>
@@ -4186,7 +4235,7 @@
       </c>
       <c r="O45" s="24"/>
     </row>
-    <row r="46" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="179.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>116</v>
       </c>
@@ -4225,7 +4274,7 @@
       </c>
       <c r="O46" s="24"/>
     </row>
-    <row r="47" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="203.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>117</v>
       </c>
@@ -4264,7 +4313,7 @@
       </c>
       <c r="O47" s="24"/>
     </row>
-    <row r="48" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="180" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>118</v>
       </c>
@@ -4303,7 +4352,7 @@
       </c>
       <c r="O48" s="24"/>
     </row>
-    <row r="49" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>119</v>
       </c>
@@ -4342,7 +4391,7 @@
       </c>
       <c r="O49" s="24"/>
     </row>
-    <row r="50" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>120</v>
       </c>
@@ -4371,7 +4420,7 @@
       </c>
       <c r="O50" s="24"/>
     </row>
-    <row r="51" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="177.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>121</v>
       </c>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="191">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -954,6 +954,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.e748357fa64cbd1f05e0b8d703203d0aa65e1ac6877848f10c8668f1aaff247a.f78baeaba6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d117d2bc3216f1d0</t>
+  </si>
+  <si>
+    <t>2023-02-07T11:49:03Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.cbd8ff5df29e9695698a48e30238833eb1bcfb7c270dd6f644a986ee69633eb7.67b4ef962b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1057,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1307,6 +1316,19 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1331,11 +1353,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1420,15 +1492,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1460,6 +1532,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2829,10 +2919,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3615,7 +3705,7 @@
       </c>
       <c r="O26" s="24"/>
     </row>
-    <row r="27" spans="1:15" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="207" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>97</v>
       </c>
@@ -3631,12 +3721,14 @@
       <c r="E27" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
+      <c r="K27" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="23" t="s">
@@ -3644,7 +3736,7 @@
       </c>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="189.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>98</v>
       </c>
@@ -3660,17 +3752,30 @@
       <c r="E28" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="21"/>
+      <c r="F28" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>190</v>
+      </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
+      <c r="L28" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M28" s="22"/>
       <c r="N28" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O28" s="24"/>
     </row>
-    <row r="29" spans="1:15" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="217.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>99</v>
       </c>
@@ -3686,9 +3791,9 @@
       <c r="E29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="21"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="197">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -963,6 +963,24 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.cbd8ff5df29e9695698a48e30238833eb1bcfb7c270dd6f644a986ee69633eb7.67b4ef962b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-07T11:53:19Z</t>
+  </si>
+  <si>
+    <t>cae0f57af9a87c4b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.35580b5b865075ce4d136f0b375c8f7bc347988c72705d47abe7ec7e242b1519.f74023dd4d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-07T11:58:35Z</t>
+  </si>
+  <si>
+    <t>443c12fb7af75190</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.c030383685a4f8cb08aa6e28c5cb80fe3f38692de2498b9d72376a214e56c87c.c3c2261e28^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1075,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1316,19 +1334,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1407,7 +1412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1492,15 +1497,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1533,22 +1538,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2919,10 +2921,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3755,10 +3757,10 @@
       <c r="F28" s="20">
         <v>44964</v>
       </c>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="56" t="s">
+      <c r="H28" s="55" t="s">
         <v>188</v>
       </c>
       <c r="I28" s="51" t="s">
@@ -3791,20 +3793,30 @@
       <c r="E29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="21"/>
+      <c r="F29" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>193</v>
+      </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="L29" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M29" s="22"/>
       <c r="N29" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O29" s="24"/>
     </row>
-    <row r="30" spans="1:15" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="202.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>100</v>
       </c>
@@ -3820,10 +3832,18 @@
       <c r="E30" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
+      <c r="F30" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>196</v>
+      </c>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
@@ -3833,7 +3853,7 @@
       </c>
       <c r="O30" s="24"/>
     </row>
-    <row r="31" spans="1:15" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="201.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>101</v>
       </c>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="200">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -981,6 +981,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.c030383685a4f8cb08aa6e28c5cb80fe3f38692de2498b9d72376a214e56c87c.c3c2261e28^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-07T12:04:00Z</t>
+  </si>
+  <si>
+    <t>817f7181858d32c8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.e3e700a36a8a8895d6f1fc6fc9fe2b78ff34549bdf0ab1b39f5573f85fb1466d.359060711c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2921,10 +2930,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3869,10 +3878,18 @@
       <c r="E31" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="F31" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>199</v>
+      </c>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
@@ -3882,7 +3899,7 @@
       </c>
       <c r="O31" s="24"/>
     </row>
-    <row r="32" spans="1:15" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="160.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>102</v>
       </c>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="203">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -990,6 +990,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.e3e700a36a8a8895d6f1fc6fc9fe2b78ff34549bdf0ab1b39f5573f85fb1466d.359060711c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>80d66f45c9200b0b</t>
+  </si>
+  <si>
+    <t>2023-02-07T12:08:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.122cb4a3602e85381744ec6b4eaf249087d38706c1616197b32f5e8b6eb5577f.d01163ae9d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2930,10 +2939,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3915,10 +3924,18 @@
       <c r="E32" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
+      <c r="F32" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>202</v>
+      </c>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -3928,7 +3945,7 @@
       </c>
       <c r="O32" s="24"/>
     </row>
-    <row r="33" spans="1:15" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="202.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>103</v>
       </c>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="206">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -999,6 +999,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.122cb4a3602e85381744ec6b4eaf249087d38706c1616197b32f5e8b6eb5577f.d01163ae9d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-07T12:48:21Z</t>
+  </si>
+  <si>
+    <t>aa6b8b700a56c80f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.14308ba58f2cad98532d698be05f21d24074575e6f05e72cb9cc734b08c539b1.e6f9a7e8bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2939,10 +2948,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3901,7 +3910,9 @@
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
+      <c r="L31" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M31" s="22"/>
       <c r="N31" s="23" t="s">
         <v>47</v>
@@ -3938,7 +3949,9 @@
       </c>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
+      <c r="L32" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M32" s="22"/>
       <c r="N32" s="23" t="s">
         <v>47</v>
@@ -3961,20 +3974,30 @@
       <c r="E33" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="F33" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>205</v>
+      </c>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
+      <c r="L33" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M33" s="22"/>
       <c r="N33" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O33" s="24"/>
     </row>
-    <row r="34" spans="1:15" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="184.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>104</v>
       </c>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="209">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1008,6 +1008,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.14308ba58f2cad98532d698be05f21d24074575e6f05e72cb9cc734b08c539b1.e6f9a7e8bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f0ee42f70b32580c</t>
+  </si>
+  <si>
+    <t>2023-02-07T13:04:26Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.98a44413ac3e3e63ad292e49a394f2bba8c549459076c22c8eb7b48cf382f489.8ce342cdf8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2948,10 +2957,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4013,20 +4022,30 @@
       <c r="E34" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="F34" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>208</v>
+      </c>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="L34" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M34" s="22"/>
       <c r="N34" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O34" s="24"/>
     </row>
-    <row r="35" spans="1:15" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="183" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>105</v>
       </c>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="209">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -884,15 +884,6 @@
     <t>2.16.840.1.113883.2.9.2.90.4.4.e9f1c43d46bf300964ef3c21545c3e828112d7747426bab98a727040849d674f.002a583bf1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-02-06T10:49:07Z</t>
-  </si>
-  <si>
-    <t>1aef99a2206d0512</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.51da2a494864dbf1ddf6782f350cf2014a041c71ead62b105d0e9831d05a7eb1.2a90ac2252^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-02-06T16:48:29Z</t>
   </si>
   <si>
@@ -1017,6 +1008,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.98a44413ac3e3e63ad292e49a394f2bba8c549459076c22c8eb7b48cf382f489.8ce342cdf8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-07T13:49:58Z</t>
+  </si>
+  <si>
+    <t>e15a84008f005021</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.34b4b527d2bfc15fb2283dad296350086254f08f27bf2923e81c4cf7a00c4e15.c3afee8a16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2957,10 +2957,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3097,7 +3097,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -3109,7 +3109,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="246" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>16</v>
       </c>
@@ -3176,13 +3176,13 @@
         <v>44963</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
@@ -3193,7 +3193,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="24"/>
     </row>
-    <row r="11" spans="1:15" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="241.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>17</v>
       </c>
@@ -3213,13 +3213,13 @@
         <v>44963</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
@@ -3230,7 +3230,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:15" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="186" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>18</v>
       </c>
@@ -3250,13 +3250,13 @@
         <v>44964</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
@@ -3267,7 +3267,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="1:15" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>19</v>
       </c>
@@ -3287,13 +3287,13 @@
         <v>44964</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -3304,7 +3304,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="96" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>20</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="N14" s="23"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" spans="1:15" ht="214.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="214.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>21</v>
       </c>
@@ -3378,7 +3378,7 @@
       <c r="N15" s="23"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="1:15" ht="206.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="206.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>22</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="N16" s="23"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:15" ht="286.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="286.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>23</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>33</v>
       </c>
@@ -3462,13 +3462,13 @@
         <v>44964</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" ht="195" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="195" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>34</v>
       </c>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="193.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>41</v>
       </c>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="O20" s="24"/>
     </row>
-    <row r="21" spans="1:15" ht="173.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="173.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>42</v>
       </c>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>49</v>
       </c>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="O22" s="24"/>
     </row>
-    <row r="23" spans="1:15" ht="86.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="86.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>50</v>
       </c>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:15" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="208.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>94</v>
       </c>
@@ -3646,13 +3646,13 @@
         <v>44964</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="O24" s="24"/>
     </row>
-    <row r="25" spans="1:15" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>95</v>
       </c>
@@ -3685,13 +3685,13 @@
         <v>44964</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="O25" s="24"/>
     </row>
-    <row r="26" spans="1:15" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>96</v>
       </c>
@@ -3724,13 +3724,13 @@
         <v>44964</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
@@ -3794,13 +3794,13 @@
         <v>44964</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I28" s="51" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
@@ -3833,13 +3833,13 @@
         <v>44964</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H29" s="54" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
@@ -3872,13 +3872,13 @@
         <v>44964</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
@@ -3909,13 +3909,13 @@
         <v>44964</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
@@ -3948,13 +3948,13 @@
         <v>44964</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
@@ -3987,13 +3987,13 @@
         <v>44964</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
@@ -4026,13 +4026,13 @@
         <v>44964</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
@@ -4061,10 +4061,18 @@
       <c r="E35" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
+      <c r="F35" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>208</v>
+      </c>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
@@ -4103,7 +4111,7 @@
       </c>
       <c r="O36" s="24"/>
     </row>
-    <row r="37" spans="1:15" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="96" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>107</v>
       </c>
@@ -4142,7 +4150,7 @@
       </c>
       <c r="O37" s="24"/>
     </row>
-    <row r="38" spans="1:15" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="93" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>108</v>
       </c>
@@ -4181,7 +4189,7 @@
       </c>
       <c r="O38" s="24"/>
     </row>
-    <row r="39" spans="1:15" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>109</v>
       </c>
@@ -4220,7 +4228,7 @@
       </c>
       <c r="O39" s="24"/>
     </row>
-    <row r="40" spans="1:15" ht="185.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="185.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>110</v>
       </c>
@@ -4251,7 +4259,7 @@
       </c>
       <c r="O40" s="24"/>
     </row>
-    <row r="41" spans="1:15" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="191.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>111</v>
       </c>
@@ -4290,7 +4298,7 @@
       </c>
       <c r="O41" s="24"/>
     </row>
-    <row r="42" spans="1:15" ht="94.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="94.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>112</v>
       </c>
@@ -4329,7 +4337,7 @@
       </c>
       <c r="O42" s="24"/>
     </row>
-    <row r="43" spans="1:15" ht="186" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="186" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>113</v>
       </c>
@@ -4368,7 +4376,7 @@
       </c>
       <c r="O43" s="24"/>
     </row>
-    <row r="44" spans="1:15" ht="198" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="198" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>114</v>
       </c>
@@ -4397,7 +4405,7 @@
       </c>
       <c r="O44" s="24"/>
     </row>
-    <row r="45" spans="1:15" ht="183.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="183.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>115</v>
       </c>
@@ -4436,7 +4444,7 @@
       </c>
       <c r="O45" s="24"/>
     </row>
-    <row r="46" spans="1:15" ht="179.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="179.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>116</v>
       </c>
@@ -4475,7 +4483,7 @@
       </c>
       <c r="O46" s="24"/>
     </row>
-    <row r="47" spans="1:15" ht="203.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="203.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>117</v>
       </c>
@@ -4514,7 +4522,7 @@
       </c>
       <c r="O47" s="24"/>
     </row>
-    <row r="48" spans="1:15" ht="180" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="180" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>118</v>
       </c>
@@ -4553,7 +4561,7 @@
       </c>
       <c r="O48" s="24"/>
     </row>
-    <row r="49" spans="1:15" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="180.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>119</v>
       </c>
@@ -4569,30 +4577,20 @@
       <c r="E49" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="20">
-        <v>44963</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>166</v>
-      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
-      <c r="L49" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O49" s="24"/>
     </row>
-    <row r="50" spans="1:15" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="182.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>120</v>
       </c>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="212">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1017,6 +1017,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.34b4b527d2bfc15fb2283dad296350086254f08f27bf2923e81c4cf7a00c4e15.c3afee8a16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-07T14:45:21Z</t>
+  </si>
+  <si>
+    <t>a9d8d37d5f859514</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.9f916df79284a8bc7af5ec232106c389fd37c275be24e9107b7dc529eb9289eb.7676c86162^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2957,10 +2966,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4075,7 +4084,9 @@
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
+      <c r="L35" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M35" s="22"/>
       <c r="N35" s="23" t="s">
         <v>47</v>
@@ -4098,13 +4109,23 @@
       <c r="E36" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
+      <c r="F36" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>211</v>
+      </c>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
+      <c r="L36" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M36" s="22"/>
       <c r="N36" s="23" t="s">
         <v>47</v>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="225">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1026,6 +1026,45 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.9f916df79284a8bc7af5ec232106c389fd37c275be24e9107b7dc529eb9289eb.7676c86162^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-07T14:55:32Z</t>
+  </si>
+  <si>
+    <t>80371154d60c0cb6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.b139871cf00b7d602344ddbdbdde313db9da07194a32271c6ecdf7b0f987a265.8e7277bd26^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Procediamo con nuovi tentativi dilazionati nel tempo</t>
+  </si>
+  <si>
+    <t>a572041ef60ffa35</t>
+  </si>
+  <si>
+    <t>2023-02-07T15:15:43Z</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>d1852c8b8d83fbf3</t>
+  </si>
+  <si>
+    <t>2023-02-07T15:21:32Z</t>
+  </si>
+  <si>
+    <t>In attesa correzione bug GW: https://github.com/ministero-salute/it-fse-support/issues/88</t>
+  </si>
+  <si>
+    <t>659e029a5c09a75d</t>
+  </si>
+  <si>
+    <t>2023-02-07T15:51:09</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.ac8a25e009f59c6ad4b774d2ee67500920982516f4c0cb8c9d96cb9621a8061a.21b439bce6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2966,10 +3005,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
+      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2977,7 +3016,7 @@
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
     <col min="5" max="5" width="64.85546875" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" customWidth="1"/>
     <col min="7" max="9" width="33.28515625" customWidth="1"/>
@@ -3165,7 +3204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="246" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="93.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>16</v>
       </c>
@@ -3202,7 +3241,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="24"/>
     </row>
-    <row r="11" spans="1:15" ht="241.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="94.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>17</v>
       </c>
@@ -3239,7 +3278,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:15" ht="186" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="92.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>18</v>
       </c>
@@ -3276,7 +3315,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="1:15" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="92.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>19</v>
       </c>
@@ -3313,7 +3352,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" ht="96" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>20</v>
       </c>
@@ -3350,7 +3389,7 @@
       <c r="N14" s="23"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" spans="1:15" ht="214.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>21</v>
       </c>
@@ -3387,7 +3426,7 @@
       <c r="N15" s="23"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="1:15" ht="206.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>22</v>
       </c>
@@ -3403,7 +3442,9 @@
       <c r="E16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -3414,7 +3455,7 @@
       <c r="N16" s="23"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:15" ht="286.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>23</v>
       </c>
@@ -3451,7 +3492,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="192" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>33</v>
       </c>
@@ -3490,7 +3531,7 @@
       </c>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" ht="195" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="195" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>34</v>
       </c>
@@ -3506,20 +3547,30 @@
       <c r="E19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="F19" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>218</v>
+      </c>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="L19" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M19" s="22"/>
       <c r="N19" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" ht="193.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="193.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>41</v>
       </c>
@@ -3535,10 +3586,18 @@
       <c r="E20" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="F20" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>214</v>
+      </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -3548,7 +3607,7 @@
       </c>
       <c r="O20" s="24"/>
     </row>
-    <row r="21" spans="1:15" ht="173.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="173.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>42</v>
       </c>
@@ -3564,10 +3623,18 @@
       <c r="E21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="F21" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>218</v>
+      </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -3577,7 +3644,7 @@
       </c>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:15" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="101.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>49</v>
       </c>
@@ -3593,11 +3660,15 @@
       <c r="E22" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="20">
+        <v>44964</v>
+      </c>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
+      <c r="J22" s="22" t="s">
+        <v>215</v>
+      </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
@@ -3606,7 +3677,7 @@
       </c>
       <c r="O22" s="24"/>
     </row>
-    <row r="23" spans="1:15" ht="86.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>50</v>
       </c>
@@ -3622,11 +3693,15 @@
       <c r="E23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="20">
+        <v>44992</v>
+      </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
+      <c r="J23" s="22" t="s">
+        <v>215</v>
+      </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
@@ -3635,7 +3710,7 @@
       </c>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:15" ht="208.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="108.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>94</v>
       </c>
@@ -3674,7 +3749,7 @@
       </c>
       <c r="O24" s="24"/>
     </row>
-    <row r="25" spans="1:15" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="148.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>95</v>
       </c>
@@ -3713,7 +3788,7 @@
       </c>
       <c r="O25" s="24"/>
     </row>
-    <row r="26" spans="1:15" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>96</v>
       </c>
@@ -3752,7 +3827,7 @@
       </c>
       <c r="O26" s="24"/>
     </row>
-    <row r="27" spans="1:15" ht="207" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>97</v>
       </c>
@@ -3783,7 +3858,7 @@
       </c>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="189.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="105" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>98</v>
       </c>
@@ -3822,7 +3897,7 @@
       </c>
       <c r="O28" s="24"/>
     </row>
-    <row r="29" spans="1:15" ht="217.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="118.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>99</v>
       </c>
@@ -3861,7 +3936,7 @@
       </c>
       <c r="O29" s="24"/>
     </row>
-    <row r="30" spans="1:15" ht="202.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="82.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>100</v>
       </c>
@@ -3898,7 +3973,7 @@
       </c>
       <c r="O30" s="24"/>
     </row>
-    <row r="31" spans="1:15" ht="201.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="94.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>101</v>
       </c>
@@ -3937,7 +4012,7 @@
       </c>
       <c r="O31" s="24"/>
     </row>
-    <row r="32" spans="1:15" ht="160.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="93" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>102</v>
       </c>
@@ -3976,7 +4051,7 @@
       </c>
       <c r="O32" s="24"/>
     </row>
-    <row r="33" spans="1:15" ht="202.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="98.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>103</v>
       </c>
@@ -4015,7 +4090,7 @@
       </c>
       <c r="O33" s="24"/>
     </row>
-    <row r="34" spans="1:15" ht="184.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="84" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>104</v>
       </c>
@@ -4054,7 +4129,7 @@
       </c>
       <c r="O34" s="24"/>
     </row>
-    <row r="35" spans="1:15" ht="183" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="88.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>105</v>
       </c>
@@ -4093,7 +4168,7 @@
       </c>
       <c r="O35" s="24"/>
     </row>
-    <row r="36" spans="1:15" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>106</v>
       </c>
@@ -4132,7 +4207,7 @@
       </c>
       <c r="O36" s="24"/>
     </row>
-    <row r="37" spans="1:15" ht="96" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>107</v>
       </c>
@@ -4171,7 +4246,7 @@
       </c>
       <c r="O37" s="24"/>
     </row>
-    <row r="38" spans="1:15" ht="93" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>108</v>
       </c>
@@ -4210,7 +4285,7 @@
       </c>
       <c r="O38" s="24"/>
     </row>
-    <row r="39" spans="1:15" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>109</v>
       </c>
@@ -4249,7 +4324,7 @@
       </c>
       <c r="O39" s="24"/>
     </row>
-    <row r="40" spans="1:15" ht="185.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>110</v>
       </c>
@@ -4265,7 +4340,9 @@
       <c r="E40" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="20"/>
+      <c r="F40" s="20">
+        <v>44960</v>
+      </c>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
@@ -4280,7 +4357,7 @@
       </c>
       <c r="O40" s="24"/>
     </row>
-    <row r="41" spans="1:15" ht="191.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>111</v>
       </c>
@@ -4319,7 +4396,7 @@
       </c>
       <c r="O41" s="24"/>
     </row>
-    <row r="42" spans="1:15" ht="94.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>112</v>
       </c>
@@ -4358,7 +4435,7 @@
       </c>
       <c r="O42" s="24"/>
     </row>
-    <row r="43" spans="1:15" ht="186" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>113</v>
       </c>
@@ -4397,7 +4474,7 @@
       </c>
       <c r="O43" s="24"/>
     </row>
-    <row r="44" spans="1:15" ht="198" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>114</v>
       </c>
@@ -4426,7 +4503,7 @@
       </c>
       <c r="O44" s="24"/>
     </row>
-    <row r="45" spans="1:15" ht="183.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>115</v>
       </c>
@@ -4465,7 +4542,7 @@
       </c>
       <c r="O45" s="24"/>
     </row>
-    <row r="46" spans="1:15" ht="179.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>116</v>
       </c>
@@ -4504,7 +4581,7 @@
       </c>
       <c r="O46" s="24"/>
     </row>
-    <row r="47" spans="1:15" ht="203.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>117</v>
       </c>
@@ -4543,7 +4620,7 @@
       </c>
       <c r="O47" s="24"/>
     </row>
-    <row r="48" spans="1:15" ht="180" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>118</v>
       </c>
@@ -4582,7 +4659,7 @@
       </c>
       <c r="O48" s="24"/>
     </row>
-    <row r="49" spans="1:15" ht="180.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>119</v>
       </c>
@@ -4598,7 +4675,9 @@
       <c r="E49" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="20"/>
+      <c r="F49" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
@@ -4611,7 +4690,7 @@
       </c>
       <c r="O49" s="24"/>
     </row>
-    <row r="50" spans="1:15" ht="182.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>120</v>
       </c>
@@ -4627,20 +4706,30 @@
       <c r="E50" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
+      <c r="F50" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>224</v>
+      </c>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
+      <c r="L50" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="M50" s="22"/>
       <c r="N50" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O50" s="24"/>
     </row>
-    <row r="51" spans="1:15" ht="177.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>121</v>
       </c>
@@ -14813,7 +14902,7 @@
   <autoFilter ref="A9:O51">
     <filterColumn colId="2">
       <filters>
-        <filter val="CERT_VAC"/>
+        <filter val="SING_VAC"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="225">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -3005,10 +3005,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
+      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4495,7 +4495,9 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
+      <c r="K44" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="23" t="s">
@@ -4745,7 +4747,9 @@
       <c r="E51" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F51" s="20"/>
+      <c r="F51" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -21,11 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestCases!$A$9:$O$51</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhXj7RfszpgZKzxg8oD/Tet7lb94w=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -84,16 +79,11 @@
       </text>
     </comment>
   </commentList>
-  <extLst>
-    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh8V9wKx5W59RIppImCD/bxmtuTrQ=="/>
-    </ext>
-  </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="236">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1065,6 +1055,39 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.ac8a25e009f59c6ad4b774d2ee67500920982516f4c0cb8c9d96cb9621a8061a.21b439bce6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>L'errore a regime non si presenterà: facciamo preventivamente l'uppercase del CF</t>
+  </si>
+  <si>
+    <t>nel campo testuale viene sempre riportata l'indicazione dell'ATC somministrato, con accodate eventuali note</t>
+  </si>
+  <si>
+    <t>il dato è obbligatorio nell'applicativo</t>
+  </si>
+  <si>
+    <t>inseriamo sempre Normal</t>
+  </si>
+  <si>
+    <t>facciamo preventivamente l'uppercase del CF</t>
+  </si>
+  <si>
+    <t>Il campo sesso nella nostra anagrafica contiene solo uno dei 3 valori previsti</t>
+  </si>
+  <si>
+    <t>I dati vaccinali e di esonero sono completamente disgiunti</t>
+  </si>
+  <si>
+    <t>dato obbligatorio nel nostro applicativo</t>
+  </si>
+  <si>
+    <t>I campi nome e cognome risultano obbligatori nella nostra anagrafica</t>
+  </si>
+  <si>
+    <t>In attesa correzione bug GW: aperta issue https://github.com/ministero-salute/it-fse-support/issues/88</t>
+  </si>
+  <si>
+    <t>I dati che alimentano questo cda.xml vengono inseriti in un elenco che i referenti aziendali possono verificare e correggere</t>
   </si>
 </sst>
 </file>
@@ -1594,6 +1617,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1615,27 +1659,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3001,14 +3024,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3016,7 +3038,7 @@
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" customWidth="1"/>
     <col min="5" max="5" width="64.85546875" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" customWidth="1"/>
     <col min="7" max="9" width="33.28515625" customWidth="1"/>
@@ -3041,12 +3063,12 @@
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="47"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -3059,14 +3081,14 @@
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="47"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3079,12 +3101,12 @@
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="48" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -3098,12 +3120,12 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="47"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3116,8 +3138,8 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -3204,7 +3226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="93.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>16</v>
       </c>
@@ -3241,7 +3263,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="24"/>
     </row>
-    <row r="11" spans="1:15" ht="94.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>17</v>
       </c>
@@ -3278,7 +3300,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:15" ht="92.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>18</v>
       </c>
@@ -3300,7 +3322,7 @@
       <c r="G12" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="37" t="s">
         <v>171</v>
       </c>
       <c r="I12" s="21" t="s">
@@ -3315,7 +3337,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="1:15" ht="92.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>19</v>
       </c>
@@ -3374,7 +3396,7 @@
       <c r="G14" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="38" t="s">
         <v>126</v>
       </c>
       <c r="I14" s="21" t="s">
@@ -3411,7 +3433,7 @@
       <c r="G15" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="37" t="s">
         <v>129</v>
       </c>
       <c r="I15" s="21" t="s">
@@ -3442,8 +3464,8 @@
       <c r="E16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>221</v>
+      <c r="F16" s="20">
+        <v>44960</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -3453,7 +3475,9 @@
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
       <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
+      <c r="O16" s="20" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
@@ -3492,7 +3516,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" ht="192" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>33</v>
       </c>
@@ -3520,7 +3544,9 @@
       <c r="I18" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="J18" s="22"/>
+      <c r="J18" s="22" t="s">
+        <v>235</v>
+      </c>
       <c r="K18" s="22"/>
       <c r="L18" s="22" t="s">
         <v>123</v>
@@ -3559,7 +3585,9 @@
       <c r="I19" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="22" t="s">
+        <v>235</v>
+      </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22" t="s">
         <v>123</v>
@@ -3570,7 +3598,7 @@
       </c>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" ht="193.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="193.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>41</v>
       </c>
@@ -3598,7 +3626,9 @@
       <c r="I20" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="J20" s="22"/>
+      <c r="J20" s="22" t="s">
+        <v>235</v>
+      </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
@@ -3635,7 +3665,9 @@
       <c r="I21" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="J21" s="22"/>
+      <c r="J21" s="22" t="s">
+        <v>235</v>
+      </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
@@ -3644,7 +3676,7 @@
       </c>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:15" ht="101.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>49</v>
       </c>
@@ -3710,7 +3742,7 @@
       </c>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:15" ht="108.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>94</v>
       </c>
@@ -3738,7 +3770,9 @@
       <c r="I24" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="J24" s="22"/>
+      <c r="J24" s="22" t="s">
+        <v>235</v>
+      </c>
       <c r="K24" s="22"/>
       <c r="L24" s="22" t="s">
         <v>123</v>
@@ -3749,7 +3783,7 @@
       </c>
       <c r="O24" s="24"/>
     </row>
-    <row r="25" spans="1:15" ht="148.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>95</v>
       </c>
@@ -3778,7 +3812,9 @@
         <v>181</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="K25" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L25" s="22" t="s">
         <v>123</v>
       </c>
@@ -3786,9 +3822,11 @@
       <c r="N25" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="24"/>
-    </row>
-    <row r="26" spans="1:15" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O25" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>96</v>
       </c>
@@ -3807,17 +3845,19 @@
       <c r="F26" s="20">
         <v>44964</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="41" t="s">
         <v>183</v>
       </c>
       <c r="I26" s="21" t="s">
         <v>184</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="K26" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L26" s="22" t="s">
         <v>123</v>
       </c>
@@ -3825,9 +3865,11 @@
       <c r="N26" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O26" s="24"/>
-    </row>
-    <row r="27" spans="1:15" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O26" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>97</v>
       </c>
@@ -3843,9 +3885,9 @@
       <c r="E27" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22" t="s">
@@ -3858,7 +3900,7 @@
       </c>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="105" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>98</v>
       </c>
@@ -3877,17 +3919,19 @@
       <c r="F28" s="20">
         <v>44964</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="I28" s="51" t="s">
+      <c r="I28" s="39" t="s">
         <v>187</v>
       </c>
       <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
+      <c r="K28" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L28" s="22" t="s">
         <v>123</v>
       </c>
@@ -3895,9 +3939,11 @@
       <c r="N28" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O28" s="24"/>
-    </row>
-    <row r="29" spans="1:15" ht="118.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O28" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>99</v>
       </c>
@@ -3916,17 +3962,19 @@
       <c r="F29" s="20">
         <v>44964</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H29" s="42" t="s">
         <v>189</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>190</v>
       </c>
       <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
+      <c r="K29" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L29" s="22" t="s">
         <v>123</v>
       </c>
@@ -3934,9 +3982,11 @@
       <c r="N29" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="24"/>
-    </row>
-    <row r="30" spans="1:15" ht="82.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O29" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>100</v>
       </c>
@@ -3965,15 +4015,19 @@
         <v>193</v>
       </c>
       <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
+      <c r="K30" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O30" s="24"/>
-    </row>
-    <row r="31" spans="1:15" ht="94.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O30" s="24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>101</v>
       </c>
@@ -4002,7 +4056,9 @@
         <v>196</v>
       </c>
       <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
+      <c r="K31" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L31" s="22" t="s">
         <v>123</v>
       </c>
@@ -4010,9 +4066,11 @@
       <c r="N31" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="24"/>
-    </row>
-    <row r="32" spans="1:15" ht="93" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O31" s="24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>102</v>
       </c>
@@ -4040,7 +4098,9 @@
       <c r="I32" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="J32" s="22"/>
+      <c r="J32" s="22" t="s">
+        <v>235</v>
+      </c>
       <c r="K32" s="22"/>
       <c r="L32" s="22" t="s">
         <v>123</v>
@@ -4051,7 +4111,7 @@
       </c>
       <c r="O32" s="24"/>
     </row>
-    <row r="33" spans="1:15" ht="98.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>103</v>
       </c>
@@ -4079,7 +4139,9 @@
       <c r="I33" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="J33" s="22"/>
+      <c r="J33" s="22" t="s">
+        <v>235</v>
+      </c>
       <c r="K33" s="22"/>
       <c r="L33" s="22" t="s">
         <v>123</v>
@@ -4090,7 +4152,7 @@
       </c>
       <c r="O33" s="24"/>
     </row>
-    <row r="34" spans="1:15" ht="84" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>104</v>
       </c>
@@ -4118,7 +4180,9 @@
       <c r="I34" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="J34" s="22"/>
+      <c r="J34" s="22" t="s">
+        <v>235</v>
+      </c>
       <c r="K34" s="22"/>
       <c r="L34" s="22" t="s">
         <v>123</v>
@@ -4129,7 +4193,7 @@
       </c>
       <c r="O34" s="24"/>
     </row>
-    <row r="35" spans="1:15" ht="88.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>105</v>
       </c>
@@ -4158,7 +4222,9 @@
         <v>208</v>
       </c>
       <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
+      <c r="K35" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L35" s="22" t="s">
         <v>123</v>
       </c>
@@ -4166,9 +4232,11 @@
       <c r="N35" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="24"/>
-    </row>
-    <row r="36" spans="1:15" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O35" s="24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>106</v>
       </c>
@@ -4197,7 +4265,9 @@
         <v>211</v>
       </c>
       <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
+      <c r="K36" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L36" s="22" t="s">
         <v>123</v>
       </c>
@@ -4205,7 +4275,9 @@
       <c r="N36" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O36" s="24"/>
+      <c r="O36" s="24" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="37" spans="1:15" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
@@ -4235,7 +4307,9 @@
       <c r="I37" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="J37" s="22"/>
+      <c r="J37" s="22" t="s">
+        <v>235</v>
+      </c>
       <c r="K37" s="22"/>
       <c r="L37" s="22" t="s">
         <v>123</v>
@@ -4275,7 +4349,9 @@
         <v>139</v>
       </c>
       <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
+      <c r="K38" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L38" s="22" t="s">
         <v>123</v>
       </c>
@@ -4283,7 +4359,9 @@
       <c r="N38" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="24"/>
+      <c r="O38" s="24" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="39" spans="1:15" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
@@ -4314,7 +4392,9 @@
         <v>142</v>
       </c>
       <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
+      <c r="K39" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L39" s="22" t="s">
         <v>123</v>
       </c>
@@ -4322,7 +4402,9 @@
       <c r="N39" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O39" s="24"/>
+      <c r="O39" s="24" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
@@ -4386,7 +4468,9 @@
         <v>145</v>
       </c>
       <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
+      <c r="K41" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L41" s="22" t="s">
         <v>123</v>
       </c>
@@ -4394,7 +4478,9 @@
       <c r="N41" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="24"/>
+      <c r="O41" s="24" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
@@ -4425,7 +4511,9 @@
         <v>148</v>
       </c>
       <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
+      <c r="K42" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L42" s="22" t="s">
         <v>123</v>
       </c>
@@ -4433,7 +4521,9 @@
       <c r="N42" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O42" s="24"/>
+      <c r="O42" s="24" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
@@ -4464,7 +4554,9 @@
         <v>151</v>
       </c>
       <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
+      <c r="K43" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L43" s="22" t="s">
         <v>123</v>
       </c>
@@ -4472,7 +4564,9 @@
       <c r="N43" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="24"/>
+      <c r="O43" s="24" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
@@ -4503,7 +4597,9 @@
       <c r="N44" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="24"/>
+      <c r="O44" s="24" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="45" spans="1:15" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
@@ -4534,7 +4630,9 @@
         <v>154</v>
       </c>
       <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
+      <c r="K45" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L45" s="22" t="s">
         <v>123</v>
       </c>
@@ -4542,7 +4640,9 @@
       <c r="N45" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="24"/>
+      <c r="O45" s="24" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="46" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
@@ -4573,7 +4673,9 @@
         <v>157</v>
       </c>
       <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
+      <c r="K46" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L46" s="22" t="s">
         <v>123</v>
       </c>
@@ -4581,7 +4683,9 @@
       <c r="N46" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O46" s="24"/>
+      <c r="O46" s="24" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="47" spans="1:15" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
@@ -4611,7 +4715,9 @@
       <c r="I47" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="J47" s="22"/>
+      <c r="J47" s="22" t="s">
+        <v>235</v>
+      </c>
       <c r="K47" s="22"/>
       <c r="L47" s="22" t="s">
         <v>123</v>
@@ -4650,7 +4756,9 @@
       <c r="I48" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="J48" s="22"/>
+      <c r="J48" s="22" t="s">
+        <v>235</v>
+      </c>
       <c r="K48" s="22"/>
       <c r="L48" s="22" t="s">
         <v>123</v>
@@ -4677,20 +4785,22 @@
       <c r="E49" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="20" t="s">
-        <v>221</v>
-      </c>
+      <c r="F49" s="20"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
+      <c r="K49" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O49" s="24"/>
+      <c r="O49" s="24" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="50" spans="1:15" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
@@ -4721,7 +4831,9 @@
         <v>224</v>
       </c>
       <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
+      <c r="K50" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L50" s="22" t="s">
         <v>123</v>
       </c>
@@ -4729,7 +4841,9 @@
       <c r="N50" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O50" s="24"/>
+      <c r="O50" s="24" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="51" spans="1:15" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
@@ -4753,7 +4867,9 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
-      <c r="J51" s="22"/>
+      <c r="J51" s="22" t="s">
+        <v>235</v>
+      </c>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
@@ -14903,13 +15019,7 @@
       <c r="O896" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:O51">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="SING_VAC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:O51"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="188">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -793,69 +793,6 @@
     <t>2.16.840.1.113883.2.9.2.90.4.4.41309ad9ee4a4dc5d8d043451d8fd76972699d3f573504fe5a355b3cfe1feb28.91a491e549^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-02-03T15:59:31Z</t>
-  </si>
-  <si>
-    <t>0707fbe98f8267c9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.7cdbc659ade53971ad4fee9066fcfe3a58904f6ba03e60b8c047dec31464f0d0.665ebe046f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-03T16:06:35Z</t>
-  </si>
-  <si>
-    <t>f046ce26006388f5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.2c9edbff1c5a4a41649812981317b66b6f683d4683f03518063aebcbdc4dc5e4.3b26100e8d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-03T16:19:54Z</t>
-  </si>
-  <si>
-    <t>f6b87b5563503880</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.9d44a696ce33f392062023517bd0fe90222b7d74cefa272e62b605b39228e6cd.b7ef544b68^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-03T16:28:04Z</t>
-  </si>
-  <si>
-    <t>8e12c64f320df259</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.09eaeb541361fcd87e79fee58b997835fe42480f6547e0a02946bb186f9d02eb.4a98c497c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-03T16:44:53Z</t>
-  </si>
-  <si>
-    <t>6b969dc0c80cdc5c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.9b39b0966ba8b8371ac6d3cbeac80c930132404a0b392dbffa3e03a544f25462.1db38fca70^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-03T16:53:54Z</t>
-  </si>
-  <si>
-    <t>3da65d831debea49</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.1d9abba9b315b3df3fd3d1da830b2c6ccd8d07c703dd14dac922133de4858246.383cbac1a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-03T17:01:25Z</t>
-  </si>
-  <si>
-    <t>d8247cc017c6a1ac</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.056ddf47f7a1b991b2da72a001d39e3b230b164a9b987e0608181ca52b47041b.ba479a7a06^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-02-03T17:10:51Z</t>
   </si>
   <si>
@@ -919,60 +856,6 @@
     <t>2.16.840.1.113883.2.9.2.90.4.4.a7c686cb97b6b996280eea8c2c140032a998fefa7ae27efb64ef70077ce8a222.f77e04ad19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>1b1b7d45b912f42d</t>
-  </si>
-  <si>
-    <t>2023-02-07T11:28:47Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.86d5071b6dca0779ff83c8ad50036f11080594edf0ea7c4dc164a003f1e5c77a.ad767223a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-07T11:41:35Z</t>
-  </si>
-  <si>
-    <t>11b5209b37842e10</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.e748357fa64cbd1f05e0b8d703203d0aa65e1ac6877848f10c8668f1aaff247a.f78baeaba6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d117d2bc3216f1d0</t>
-  </si>
-  <si>
-    <t>2023-02-07T11:49:03Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.cbd8ff5df29e9695698a48e30238833eb1bcfb7c270dd6f644a986ee69633eb7.67b4ef962b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-07T11:53:19Z</t>
-  </si>
-  <si>
-    <t>cae0f57af9a87c4b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.35580b5b865075ce4d136f0b375c8f7bc347988c72705d47abe7ec7e242b1519.f74023dd4d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-07T11:58:35Z</t>
-  </si>
-  <si>
-    <t>443c12fb7af75190</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.c030383685a4f8cb08aa6e28c5cb80fe3f38692de2498b9d72376a214e56c87c.c3c2261e28^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-07T12:04:00Z</t>
-  </si>
-  <si>
-    <t>817f7181858d32c8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.e3e700a36a8a8895d6f1fc6fc9fe2b78ff34549bdf0ab1b39f5573f85fb1466d.359060711c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>80d66f45c9200b0b</t>
   </si>
   <si>
@@ -1000,24 +883,6 @@
     <t>2.16.840.1.113883.2.9.2.90.4.4.98a44413ac3e3e63ad292e49a394f2bba8c549459076c22c8eb7b48cf382f489.8ce342cdf8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-02-07T13:49:58Z</t>
-  </si>
-  <si>
-    <t>e15a84008f005021</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.34b4b527d2bfc15fb2283dad296350086254f08f27bf2923e81c4cf7a00c4e15.c3afee8a16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-07T14:45:21Z</t>
-  </si>
-  <si>
-    <t>a9d8d37d5f859514</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.9f916df79284a8bc7af5ec232106c389fd37c275be24e9107b7dc529eb9289eb.7676c86162^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-02-07T14:55:32Z</t>
   </si>
   <si>
@@ -1046,15 +911,6 @@
   </si>
   <si>
     <t>In attesa correzione bug GW: https://github.com/ministero-salute/it-fse-support/issues/88</t>
-  </si>
-  <si>
-    <t>659e029a5c09a75d</t>
-  </si>
-  <si>
-    <t>2023-02-07T15:51:09</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.ac8a25e009f59c6ad4b774d2ee67500920982516f4c0cb8c9d96cb9621a8061a.21b439bce6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>L'errore a regime non si presenterà: facciamo preventivamente l'uppercase del CF</t>
@@ -3026,11 +2882,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O896"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="H48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomRight" activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3246,13 +3102,13 @@
         <v>44963</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
@@ -3283,13 +3139,13 @@
         <v>44963</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
@@ -3320,13 +3176,13 @@
         <v>44964</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
@@ -3357,13 +3213,13 @@
         <v>44964</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -3476,7 +3332,7 @@
       <c r="M16" s="22"/>
       <c r="N16" s="23"/>
       <c r="O16" s="20" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3536,21 +3392,19 @@
         <v>44964</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K18" s="22"/>
-      <c r="L18" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="23" t="s">
         <v>47</v>
@@ -3577,21 +3431,19 @@
         <v>44964</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K19" s="22"/>
-      <c r="L19" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="23" t="s">
         <v>47</v>
@@ -3618,16 +3470,16 @@
         <v>44964</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -3657,16 +3509,16 @@
         <v>44964</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -3699,7 +3551,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="22" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
@@ -3732,7 +3584,7 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="22" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
@@ -3762,21 +3614,19 @@
         <v>44964</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K24" s="22"/>
-      <c r="L24" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="23" t="s">
         <v>47</v>
@@ -3799,31 +3649,21 @@
       <c r="E25" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="20">
-        <v>44964</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>181</v>
-      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L25" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3842,31 +3682,21 @@
       <c r="E26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="20">
-        <v>44964</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>184</v>
-      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L26" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3916,31 +3746,21 @@
       <c r="E28" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="20">
-        <v>44964</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="H28" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>187</v>
-      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L28" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3959,31 +3779,21 @@
       <c r="E29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="20">
-        <v>44964</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>190</v>
-      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L29" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4002,18 +3812,10 @@
       <c r="E30" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="20">
-        <v>44964</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>193</v>
-      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22" t="s">
         <v>124</v>
@@ -4024,7 +3826,7 @@
         <v>47</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4043,31 +3845,21 @@
       <c r="E31" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="20">
-        <v>44964</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>196</v>
-      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L31" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4090,21 +3882,19 @@
         <v>44964</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K32" s="22"/>
-      <c r="L32" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="23" t="s">
         <v>47</v>
@@ -4131,21 +3921,19 @@
         <v>44964</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K33" s="22"/>
-      <c r="L33" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="23" t="s">
         <v>47</v>
@@ -4172,21 +3960,19 @@
         <v>44964</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K34" s="22"/>
-      <c r="L34" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="23" t="s">
         <v>47</v>
@@ -4209,31 +3995,21 @@
       <c r="E35" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="20">
-        <v>44964</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>208</v>
-      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L35" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4252,31 +4028,21 @@
       <c r="E36" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="20">
-        <v>44964</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>211</v>
-      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L36" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4308,12 +4074,10 @@
         <v>136</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K37" s="22"/>
-      <c r="L37" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="23" t="s">
         <v>47</v>
@@ -4336,31 +4100,21 @@
       <c r="E38" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="20">
-        <v>44960</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L38" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O38" s="24" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4379,31 +4133,21 @@
       <c r="E39" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="20">
-        <v>44960</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>142</v>
-      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L39" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O39" s="24" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4422,9 +4166,7 @@
       <c r="E40" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="20">
-        <v>44960</v>
-      </c>
+      <c r="F40" s="20"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
@@ -4455,31 +4197,21 @@
       <c r="E41" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="20">
-        <v>44960</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>145</v>
-      </c>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L41" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4498,31 +4230,21 @@
       <c r="E42" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="20">
-        <v>44960</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>148</v>
-      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L42" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4541,31 +4263,21 @@
       <c r="E43" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="20">
-        <v>44960</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>151</v>
-      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L43" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4598,7 +4310,7 @@
         <v>47</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4617,31 +4329,21 @@
       <c r="E45" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="20">
-        <v>44960</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>154</v>
-      </c>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L45" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4660,31 +4362,21 @@
       <c r="E46" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="20">
-        <v>44960</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>157</v>
-      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L46" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4707,21 +4399,19 @@
         <v>44960</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K47" s="22"/>
-      <c r="L47" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="23" t="s">
         <v>47</v>
@@ -4748,21 +4438,19 @@
         <v>44963</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K48" s="22"/>
-      <c r="L48" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="23" t="s">
         <v>47</v>
@@ -4799,7 +4487,7 @@
         <v>47</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4821,28 +4509,20 @@
       <c r="F50" s="20">
         <v>44964</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>224</v>
-      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L50" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="23" t="s">
         <v>47</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4862,13 +4542,13 @@
         <v>114</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="22" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="190">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -940,10 +940,16 @@
     <t>I campi nome e cognome risultano obbligatori nella nostra anagrafica</t>
   </si>
   <si>
-    <t>In attesa correzione bug GW: aperta issue https://github.com/ministero-salute/it-fse-support/issues/88</t>
-  </si>
-  <si>
     <t>I dati che alimentano questo cda.xml vengono inseriti in un elenco che i referenti aziendali possono verificare e correggere</t>
+  </si>
+  <si>
+    <t>bf31f594b311b152</t>
+  </si>
+  <si>
+    <t>2023-02-14T16:49:14Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.0d79c9ac7146e99d03ecfbda28d52593eb90ca9279c6ecd4b3bd358dff158a67.49c8cd73a0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2880,13 +2886,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J52" sqref="J52"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3082,7 +3089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="93.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>16</v>
       </c>
@@ -3119,7 +3126,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="24"/>
     </row>
-    <row r="11" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="94.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>17</v>
       </c>
@@ -3156,7 +3163,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:15" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="92.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>18</v>
       </c>
@@ -3193,7 +3200,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="1:15" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="92.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>19</v>
       </c>
@@ -3321,19 +3328,25 @@
         <v>44</v>
       </c>
       <c r="F16" s="20">
-        <v>44960</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+        <v>44971</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>189</v>
+      </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="L16" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M16" s="22"/>
       <c r="N16" s="23"/>
-      <c r="O16" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:15" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
@@ -3372,7 +3385,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="192" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>33</v>
       </c>
@@ -3401,7 +3414,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
@@ -3440,7 +3453,7 @@
         <v>173</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
@@ -3450,7 +3463,7 @@
       </c>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" ht="193.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="193.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>41</v>
       </c>
@@ -3479,7 +3492,7 @@
         <v>169</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -3518,7 +3531,7 @@
         <v>173</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -3528,7 +3541,7 @@
       </c>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:15" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="101.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>49</v>
       </c>
@@ -3594,7 +3607,7 @@
       </c>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:15" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="108.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>94</v>
       </c>
@@ -3623,7 +3636,7 @@
         <v>157</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
@@ -3633,7 +3646,7 @@
       </c>
       <c r="O24" s="24"/>
     </row>
-    <row r="25" spans="1:15" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="148.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>95</v>
       </c>
@@ -3666,7 +3679,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>96</v>
       </c>
@@ -3699,7 +3712,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>97</v>
       </c>
@@ -3730,7 +3743,7 @@
       </c>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="105" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>98</v>
       </c>
@@ -3763,7 +3776,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="118.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>99</v>
       </c>
@@ -3796,7 +3809,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="82.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>100</v>
       </c>
@@ -3829,7 +3842,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="94.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>101</v>
       </c>
@@ -3862,7 +3875,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="93" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>102</v>
       </c>
@@ -3891,7 +3904,7 @@
         <v>160</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -3901,7 +3914,7 @@
       </c>
       <c r="O32" s="24"/>
     </row>
-    <row r="33" spans="1:15" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="98.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>103</v>
       </c>
@@ -3930,7 +3943,7 @@
         <v>163</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
@@ -3940,7 +3953,7 @@
       </c>
       <c r="O33" s="24"/>
     </row>
-    <row r="34" spans="1:15" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="84" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>104</v>
       </c>
@@ -3969,7 +3982,7 @@
         <v>166</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
@@ -3979,7 +3992,7 @@
       </c>
       <c r="O34" s="24"/>
     </row>
-    <row r="35" spans="1:15" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="88.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>105</v>
       </c>
@@ -4012,7 +4025,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="109.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>106</v>
       </c>
@@ -4074,7 +4087,7 @@
         <v>136</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
@@ -4408,7 +4421,7 @@
         <v>139</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
@@ -4447,7 +4460,7 @@
         <v>142</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -4548,7 +4561,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
@@ -14699,7 +14712,13 @@
       <c r="O896" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:O51"/>
+  <autoFilter ref="A9:O51">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="SING_VAC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="192">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -910,9 +910,6 @@
     <t>2023-02-07T15:21:32Z</t>
   </si>
   <si>
-    <t>In attesa correzione bug GW: https://github.com/ministero-salute/it-fse-support/issues/88</t>
-  </si>
-  <si>
     <t>L'errore a regime non si presenterà: facciamo preventivamente l'uppercase del CF</t>
   </si>
   <si>
@@ -950,6 +947,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.0d79c9ac7146e99d03ecfbda28d52593eb90ca9279c6ecd4b3bd358dff158a67.49c8cd73a0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8ddcd879feaf77cd</t>
+  </si>
+  <si>
+    <t>2023-02-14T16:58:33Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.21b4a6d4582e24e59a93e58b02d7ebb369c2a92f78e2e4239541bddbbe73b2c6.27e3fb0981^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2890,10 +2896,10 @@
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3331,13 +3337,13 @@
         <v>44971</v>
       </c>
       <c r="G16" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>188</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>189</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
@@ -3414,7 +3420,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
@@ -3453,7 +3459,7 @@
         <v>173</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
@@ -3492,7 +3498,7 @@
         <v>169</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -3531,7 +3537,7 @@
         <v>173</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -3636,7 +3642,7 @@
         <v>157</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
@@ -3676,7 +3682,7 @@
         <v>47</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3709,7 +3715,7 @@
         <v>47</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3773,7 +3779,7 @@
         <v>47</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="118.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3806,7 +3812,7 @@
         <v>47</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="82.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3839,7 +3845,7 @@
         <v>47</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="94.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3872,7 +3878,7 @@
         <v>47</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="93" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3904,7 +3910,7 @@
         <v>160</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -3943,7 +3949,7 @@
         <v>163</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
@@ -3982,7 +3988,7 @@
         <v>166</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
@@ -4022,7 +4028,7 @@
         <v>47</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="109.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4055,7 +4061,7 @@
         <v>47</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4087,7 +4093,7 @@
         <v>136</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
@@ -4127,7 +4133,7 @@
         <v>47</v>
       </c>
       <c r="O38" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4160,7 +4166,7 @@
         <v>47</v>
       </c>
       <c r="O39" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4224,7 +4230,7 @@
         <v>47</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4257,7 +4263,7 @@
         <v>47</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4290,7 +4296,7 @@
         <v>47</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4323,7 +4329,7 @@
         <v>47</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4356,7 +4362,7 @@
         <v>47</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4389,7 +4395,7 @@
         <v>47</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4421,7 +4427,7 @@
         <v>139</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
@@ -4460,7 +4466,7 @@
         <v>142</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -4500,7 +4506,7 @@
         <v>47</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4519,9 +4525,7 @@
       <c r="E50" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="20">
-        <v>44964</v>
-      </c>
+      <c r="F50" s="20"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -4535,7 +4539,7 @@
         <v>47</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4554,14 +4558,20 @@
       <c r="E51" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F51" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
+      <c r="F51" s="20">
+        <v>44971</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>191</v>
+      </c>
       <c r="J51" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -2892,14 +2892,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O896"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3095,7 +3094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="93.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>16</v>
       </c>
@@ -3132,7 +3131,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="24"/>
     </row>
-    <row r="11" spans="1:15" ht="94.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>17</v>
       </c>
@@ -3169,7 +3168,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:15" ht="92.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>18</v>
       </c>
@@ -3206,7 +3205,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="1:15" ht="92.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>19</v>
       </c>
@@ -3391,7 +3390,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" ht="192" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>33</v>
       </c>
@@ -3469,7 +3468,7 @@
       </c>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" ht="193.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="193.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>41</v>
       </c>
@@ -3547,7 +3546,7 @@
       </c>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:15" ht="101.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>49</v>
       </c>
@@ -3613,7 +3612,7 @@
       </c>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:15" ht="108.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>94</v>
       </c>
@@ -3652,7 +3651,7 @@
       </c>
       <c r="O24" s="24"/>
     </row>
-    <row r="25" spans="1:15" ht="148.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>95</v>
       </c>
@@ -3685,7 +3684,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>96</v>
       </c>
@@ -3718,7 +3717,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>97</v>
       </c>
@@ -3749,7 +3748,7 @@
       </c>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="105" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>98</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="118.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>99</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="82.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>100</v>
       </c>
@@ -3848,7 +3847,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="94.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>101</v>
       </c>
@@ -3881,7 +3880,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="93" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>102</v>
       </c>
@@ -3920,7 +3919,7 @@
       </c>
       <c r="O32" s="24"/>
     </row>
-    <row r="33" spans="1:15" ht="98.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>103</v>
       </c>
@@ -3959,7 +3958,7 @@
       </c>
       <c r="O33" s="24"/>
     </row>
-    <row r="34" spans="1:15" ht="84" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>104</v>
       </c>
@@ -3998,7 +3997,7 @@
       </c>
       <c r="O34" s="24"/>
     </row>
-    <row r="35" spans="1:15" ht="88.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>105</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="109.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>106</v>
       </c>
@@ -14722,13 +14721,7 @@
       <c r="O896" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:O51">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="SING_VAC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:O51"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111CONSORZIOMETIS/CONSORZIO_METIS/SISPC/V.23/accreditamento-checklist_V4.1.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="194">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -956,6 +956,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.21b4a6d4582e24e59a93e58b02d7ebb369c2a92f78e2e4239541bddbbe73b2c6.27e3fb0981^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il campo indirizzo non risulta valorizzato</t>
+  </si>
+  <si>
+    <t>Il campo indirizzo non è valorizzato</t>
   </si>
 </sst>
 </file>
@@ -2898,7 +2904,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="F45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3422,7 +3428,9 @@
         <v>185</v>
       </c>
       <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="L18" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M18" s="22"/>
       <c r="N18" s="23" t="s">
         <v>47</v>
@@ -3461,7 +3469,9 @@
         <v>185</v>
       </c>
       <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="L19" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M19" s="22"/>
       <c r="N19" s="23" t="s">
         <v>47</v>
@@ -3500,7 +3510,9 @@
         <v>185</v>
       </c>
       <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
+      <c r="L20" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M20" s="22"/>
       <c r="N20" s="23" t="s">
         <v>47</v>
@@ -3539,7 +3551,9 @@
         <v>185</v>
       </c>
       <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
+      <c r="L21" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M21" s="22"/>
       <c r="N21" s="23" t="s">
         <v>47</v>
@@ -3572,7 +3586,9 @@
         <v>170</v>
       </c>
       <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
+      <c r="L22" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M22" s="22"/>
       <c r="N22" s="23" t="s">
         <v>47</v>
@@ -3605,7 +3621,9 @@
         <v>170</v>
       </c>
       <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="L23" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M23" s="22"/>
       <c r="N23" s="23" t="s">
         <v>47</v>
@@ -3644,7 +3662,9 @@
         <v>185</v>
       </c>
       <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
+      <c r="L24" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M24" s="22"/>
       <c r="N24" s="23" t="s">
         <v>47</v>
@@ -3676,13 +3696,13 @@
         <v>124</v>
       </c>
       <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="M25" s="22" t="s">
+        <v>176</v>
+      </c>
       <c r="N25" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="24" t="s">
-        <v>176</v>
-      </c>
+      <c r="O25" s="24"/>
     </row>
     <row r="26" spans="1:15" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
@@ -3709,13 +3729,13 @@
         <v>124</v>
       </c>
       <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
+      <c r="M26" s="22" t="s">
+        <v>179</v>
+      </c>
       <c r="N26" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O26" s="24" t="s">
-        <v>179</v>
-      </c>
+      <c r="O26" s="24"/>
     </row>
     <row r="27" spans="1:15" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
@@ -3742,7 +3762,9 @@
         <v>124</v>
       </c>
       <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
+      <c r="M27" s="22" t="s">
+        <v>192</v>
+      </c>
       <c r="N27" s="23" t="s">
         <v>47</v>
       </c>
@@ -3773,13 +3795,13 @@
         <v>124</v>
       </c>
       <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
+      <c r="M28" s="22" t="s">
+        <v>184</v>
+      </c>
       <c r="N28" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O28" s="24" t="s">
-        <v>184</v>
-      </c>
+      <c r="O28" s="24"/>
     </row>
     <row r="29" spans="1:15" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
@@ -3806,13 +3828,13 @@
         <v>124</v>
       </c>
       <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
+      <c r="M29" s="22" t="s">
+        <v>181</v>
+      </c>
       <c r="N29" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="24" t="s">
-        <v>181</v>
-      </c>
+      <c r="O29" s="24"/>
     </row>
     <row r="30" spans="1:15" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
@@ -3839,13 +3861,13 @@
         <v>124</v>
       </c>
       <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
+      <c r="M30" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="N30" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O30" s="24" t="s">
-        <v>177</v>
-      </c>
+      <c r="O30" s="24"/>
     </row>
     <row r="31" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
@@ -3872,13 +3894,13 @@
         <v>124</v>
       </c>
       <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
+      <c r="M31" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="N31" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="24" t="s">
-        <v>183</v>
-      </c>
+      <c r="O31" s="24"/>
     </row>
     <row r="32" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
@@ -3912,7 +3934,9 @@
         <v>185</v>
       </c>
       <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
+      <c r="L32" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M32" s="22"/>
       <c r="N32" s="23" t="s">
         <v>47</v>
@@ -3951,7 +3975,9 @@
         <v>185</v>
       </c>
       <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
+      <c r="L33" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M33" s="22"/>
       <c r="N33" s="23" t="s">
         <v>47</v>
@@ -3990,7 +4016,9 @@
         <v>185</v>
       </c>
       <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="L34" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M34" s="22"/>
       <c r="N34" s="23" t="s">
         <v>47</v>
@@ -4022,13 +4050,13 @@
         <v>124</v>
       </c>
       <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
+      <c r="M35" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="N35" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="24" t="s">
-        <v>183</v>
-      </c>
+      <c r="O35" s="24"/>
     </row>
     <row r="36" spans="1:15" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
@@ -4055,13 +4083,13 @@
         <v>124</v>
       </c>
       <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
+      <c r="M36" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="N36" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O36" s="24" t="s">
-        <v>183</v>
-      </c>
+      <c r="O36" s="24"/>
     </row>
     <row r="37" spans="1:15" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
@@ -4095,7 +4123,9 @@
         <v>185</v>
       </c>
       <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
+      <c r="L37" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M37" s="22"/>
       <c r="N37" s="23" t="s">
         <v>47</v>
@@ -4127,13 +4157,13 @@
         <v>124</v>
       </c>
       <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+      <c r="M38" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="N38" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="24" t="s">
-        <v>180</v>
-      </c>
+      <c r="O38" s="24"/>
     </row>
     <row r="39" spans="1:15" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
@@ -4160,13 +4190,13 @@
         <v>124</v>
       </c>
       <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
+      <c r="M39" s="22" t="s">
+        <v>179</v>
+      </c>
       <c r="N39" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O39" s="24" t="s">
-        <v>179</v>
-      </c>
+      <c r="O39" s="24"/>
     </row>
     <row r="40" spans="1:15" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
@@ -4193,7 +4223,9 @@
         <v>124</v>
       </c>
       <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
+      <c r="M40" s="22" t="s">
+        <v>193</v>
+      </c>
       <c r="N40" s="23" t="s">
         <v>47</v>
       </c>
@@ -4224,13 +4256,13 @@
         <v>124</v>
       </c>
       <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
+      <c r="M41" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="N41" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="24" t="s">
-        <v>180</v>
-      </c>
+      <c r="O41" s="24"/>
     </row>
     <row r="42" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
@@ -4257,13 +4289,13 @@
         <v>124</v>
       </c>
       <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
+      <c r="M42" s="22" t="s">
+        <v>181</v>
+      </c>
       <c r="N42" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O42" s="24" t="s">
-        <v>181</v>
-      </c>
+      <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
@@ -4290,13 +4322,13 @@
         <v>124</v>
       </c>
       <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
+      <c r="M43" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="N43" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="24" t="s">
-        <v>177</v>
-      </c>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
@@ -4323,13 +4355,13 @@
         <v>124</v>
       </c>
       <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
+      <c r="M44" s="22" t="s">
+        <v>182</v>
+      </c>
       <c r="N44" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="24" t="s">
-        <v>182</v>
-      </c>
+      <c r="O44" s="24"/>
     </row>
     <row r="45" spans="1:15" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
@@ -4356,13 +4388,13 @@
         <v>124</v>
       </c>
       <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
+      <c r="M45" s="22" t="s">
+        <v>178</v>
+      </c>
       <c r="N45" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="24" t="s">
-        <v>178</v>
-      </c>
+      <c r="O45" s="24"/>
     </row>
     <row r="46" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
@@ -4389,13 +4421,13 @@
         <v>124</v>
       </c>
       <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
+      <c r="M46" s="22" t="s">
+        <v>178</v>
+      </c>
       <c r="N46" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O46" s="24" t="s">
-        <v>178</v>
-      </c>
+      <c r="O46" s="24"/>
     </row>
     <row r="47" spans="1:15" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
@@ -4429,7 +4461,9 @@
         <v>185</v>
       </c>
       <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
+      <c r="L47" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M47" s="22"/>
       <c r="N47" s="23" t="s">
         <v>47</v>
@@ -4468,7 +4502,9 @@
         <v>185</v>
       </c>
       <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
+      <c r="L48" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M48" s="22"/>
       <c r="N48" s="23" t="s">
         <v>47</v>
@@ -4500,13 +4536,13 @@
         <v>124</v>
       </c>
       <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
+      <c r="M49" s="22" t="s">
+        <v>178</v>
+      </c>
       <c r="N49" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O49" s="24" t="s">
-        <v>178</v>
-      </c>
+      <c r="O49" s="24"/>
     </row>
     <row r="50" spans="1:15" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
@@ -4533,13 +4569,13 @@
         <v>124</v>
       </c>
       <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
+      <c r="M50" s="22" t="s">
+        <v>178</v>
+      </c>
       <c r="N50" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O50" s="24" t="s">
-        <v>178</v>
-      </c>
+      <c r="O50" s="24"/>
     </row>
     <row r="51" spans="1:15" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
@@ -4573,7 +4609,9 @@
         <v>185</v>
       </c>
       <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
+      <c r="L51" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="M51" s="22"/>
       <c r="N51" s="23" t="s">
         <v>47</v>
